--- a/biology/Médecine/Auguste_Nicolas_Gendrin/Auguste_Nicolas_Gendrin.xlsx
+++ b/biology/Médecine/Auguste_Nicolas_Gendrin/Auguste_Nicolas_Gendrin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Auguste Nicolas Gendrin est un docteur en médecine né le 6 décembre 1796 à Chateaudun (Eure-et-Loir) et mort le 5 janvier 1890 à son domicile dans le 8e arrondissement de Paris[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Auguste Nicolas Gendrin est un docteur en médecine né le 6 décembre 1796 à Chateaudun (Eure-et-Loir) et mort le 5 janvier 1890 à son domicile dans le 8e arrondissement de Paris.
 Médecin français honoraire des Hôpitaux, il obtient le prix de la Société de médecine de Paris (1823), le prix de la Société médicale d'émulation (1824), et celui de l'Académie des sciences couronnant une monographie sur le choléra (1832). Il est lauréat de l'Institut, et secrétaire général du Cercle médical de Paris. - Il a notamment traduit de l'anglais en français.
 </t>
         </is>
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,9 +552,11 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Recherches physiologiques sur la motilité / Paris : Béchet , 1822
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Recherches physiologiques sur la motilité / Paris : Béchet , 1822
 Recherches sur les tubercules du cerveau et de la moelle épiniére / par A.-N. Gendrin / Paris : De l'Imprimerie de Feugueray , 1823
 Mémoire sur les causes des convulsions chez les enfans, et sur les moyens d'y remédier/ par le Dr J.-L. Brachet, ... / par le Dr Gendrin / Paris : Béchet jeune , 1824
 Histoire anatomique des inflammations / par A.N. Gendrin / Paris : Béchet jeune , 1826
@@ -564,7 +580,7 @@
 Die Cholera und ihre rationelle Behandlung : Uebersetzung und Auszug aus A.N. Gendrin's Monographie du choléra-morbus épidémique de Paris : nebst einem Briefe Gendrin's an den Uebersetzer / Köln : M. DuMont Schauberg, 1849
 Traité philosophique des fièvres périodiques / A. N. Gendrin / Paris : Librairie F. Savy , 1877
 Exposé des titres scientifiques présentés pour le concours de pathologie interne / par A. N. Gendrin... / Édition électronique : numérisation 2012 / Paris : BIU Santé , 2012
-Exposé des titres scientifiques présentés pour le concours de pathologie interne / par A. N. Gendrin... / [Paris] : [impr. Locquin] , [1840]</t>
+Exposé des titres scientifiques présentés pour le concours de pathologie interne / par A. N. Gendrin... / [Paris] : [impr. Locquin] , </t>
         </is>
       </c>
     </row>
